--- a/data/TABLAPREMIERE.xlsx
+++ b/data/TABLAPREMIERE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto-Fundamentos-de-Programacion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD42FF1D-9B71-430F-A999-E44839BF6CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E477A02-7121-48C4-A605-5F17C019038C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="285" windowWidth="12675" windowHeight="10635" xr2:uid="{AE0D6F70-60D7-43F7-B866-C35A48B38857}"/>
+    <workbookView xWindow="6060" yWindow="285" windowWidth="12675" windowHeight="10635" activeTab="1" xr2:uid="{AE0D6F70-60D7-43F7-B866-C35A48B38857}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3122,7 +3122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6592A6-D275-47FF-9AB9-E38E03CAE041}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
@@ -4193,11 +4193,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA00B40-E80B-40AF-A2BF-D67E01F15B20}">
   <dimension ref="A1:N700"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N700"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
